--- a/manufacturing/BOMs/ICs to be ordered.xlsx
+++ b/manufacturing/BOMs/ICs to be ordered.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nitro5\Documents\EAGLE\projects\CubeSat-ADCS-Hardware\manufacturing\BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasper Grant\Documents\EAGLE\projects\CubeSat-ADCS-Hardware\manufacturing\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C3A189-0D15-4265-A5FB-CF229B49804A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECFEB79-7C2F-4E42-911F-8B287E95A214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>Texas Instruments</t>
   </si>
@@ -33,24 +33,12 @@
     <t>DO NOT INSTALL</t>
   </si>
   <si>
-    <t>STMicroelectronics</t>
-  </si>
-  <si>
-    <t>TSV991AILT</t>
-  </si>
-  <si>
     <t>SOT-23-5</t>
   </si>
   <si>
     <t>General Purpose Amplifier 1 Circuit Rail-to-Rail SOT-23-5</t>
   </si>
   <si>
-    <t>497-5833-1-ND</t>
-  </si>
-  <si>
-    <t>https://www.st.com/content/ccc/resource/technical/document/datasheet/d8/e3/a5/aa/8f/d7/42/67/CD00144611.pdf/files/CD00144611.pdf/jcr:content/translations/en.CD00144611.pdf</t>
-  </si>
-  <si>
     <t>Micro Crystal AG</t>
   </si>
   <si>
@@ -138,9 +126,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>Z-(U3, U6, U8, U9, U10, U11, U12, U14, U16, U17, U19, U21, U23, U26, U29), Z+(U1, U5, U8), ACT_BRD(U8, U12, U19), MOBO(U2, U4, U10)</t>
   </si>
   <si>
@@ -162,14 +147,65 @@
     <t>In stock, needs to be ordered</t>
   </si>
   <si>
-    <t>Not in stock, alternative available</t>
+    <t>MCP621ST-E/OT</t>
+  </si>
+  <si>
+    <t>https://ww1.microchip.com/downloads/en/DeviceDoc/20002188D.pdf</t>
+  </si>
+  <si>
+    <t>Microchip Technology</t>
+  </si>
+  <si>
+    <t>Infineon Technologies</t>
+  </si>
+  <si>
+    <t>BSR802NL6327HTSA1</t>
+  </si>
+  <si>
+    <t>MOBO(Q1)</t>
+  </si>
+  <si>
+    <t>SOT23-3</t>
+  </si>
+  <si>
+    <t>N-Channel 20 V 3.7A (Ta) 500mW (Ta) Surface Mount PG-SC59-3</t>
+  </si>
+  <si>
+    <t>BSR802NL6327HTSA1CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.infineon.com/dgdl/BSR802N_Rev2.1.pdf?folderId=db3a3043156fd573011622e10b5c1f67&amp;fileId=db3a30431b0626df011b129302297bc1</t>
+  </si>
+  <si>
+    <t>In stock on mouser</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/micro-crystal-ag/MS3V-T1R-32-768KHZ-7PF-20PPM-TA-QC-AU/10499253?s=N4IgTCBcDa4IwE4CsBaAsgZQMwDUUBU4AlFLMAOgHYA2ADgGkAJALRUoAUAxFMABnfZoCAQRQBFAMIphAVQn4UAOQAiIALoBfIA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/murata-electronics/CSTCR4M00G55-R0/2588605?s=N4IgTCBcDaICwE4AMBaArAhA2FBGFAcgCIgC6AvkA</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Infineon/BSR802NL6327HTSA1?qs=sGAEpiMZZMsBCPBs0T0YsN66Ih7gx8rymRJPfEIP7fg%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Texas-Instruments/LM2917MX-NOPB?qs=%2Fha2pyFaduhreCckjeMiwskQoy6O5Kg%2FbRhziKTL3zwhzO0pwcsRjg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Microchip/MCP621ST-E-OT?qs=sGAEpiMZZMsFKQfwwdJx%2F47AaifWqmqoJWDh1uUqyRQ%3D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,8 +228,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF222222"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,8 +266,19 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -229,12 +301,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -249,15 +334,32 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -539,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,46 +653,50 @@
     <col min="6" max="6" width="12.109375" customWidth="1"/>
     <col min="8" max="8" width="57.88671875" customWidth="1"/>
     <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="11" max="11" width="32" customWidth="1"/>
+    <col min="12" max="12" width="37.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1"/>
+      <c r="L1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="N1"/>
       <c r="O1"/>
       <c r="P1"/>
@@ -619,39 +725,42 @@
       <c r="AM1"/>
       <c r="AN1"/>
     </row>
-    <row r="2" spans="1:40" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3">
+    <row r="2" spans="1:40" s="10" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="10">
         <v>24</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="I2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>45</v>
+      <c r="L2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -662,31 +771,34 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="L3" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="M3" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -694,34 +806,37 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>14</v>
+      <c r="L4" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N4" s="2"/>
     </row>
@@ -730,42 +845,88 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="L5" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="M5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="2"/>
+      <c r="E6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="17"/>
     </row>
     <row r="40" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{A3FDF76B-DED7-4AA9-9A28-2D7A4B8D2EEE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>